--- a/src/main/resources/exoticjerky_inventory.xlsx
+++ b/src/main/resources/exoticjerky_inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkFiles\Git\Revature\Robert-P0\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED39F50C-C095-44B5-9934-2AF287DFC90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD8F60-4B56-46C2-BBE3-162CD5A2C17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42315" yWindow="2835" windowWidth="28800" windowHeight="15435" xr2:uid="{8D1041B2-E17B-4CDD-9E44-0913E3D8DFC8}"/>
+    <workbookView xWindow="45270" yWindow="3000" windowWidth="28800" windowHeight="15435" xr2:uid="{8D1041B2-E17B-4CDD-9E44-0913E3D8DFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,28 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>desription</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>store_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>SWEET</t>
   </si>
@@ -64,7 +43,118 @@
     <t>Honey Ham</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Desription</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Product id</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>SPICY</t>
+  </si>
+  <si>
+    <t>Maple Duck</t>
+  </si>
+  <si>
+    <t>Venision Teriyaki</t>
+  </si>
+  <si>
+    <t>Kangaroo</t>
+  </si>
+  <si>
+    <t>Antelope</t>
+  </si>
+  <si>
+    <t>Ostrich</t>
+  </si>
+  <si>
+    <t>Peppered Elk</t>
+  </si>
+  <si>
+    <t>Smoked Beef</t>
+  </si>
+  <si>
+    <t>Bar-B-Q Boar</t>
+  </si>
+  <si>
+    <t>Peppered Turkey</t>
+  </si>
+  <si>
+    <t>Venision</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Mexican-Style Chorizo</t>
+  </si>
+  <si>
+    <t>Cajun Alligator</t>
+  </si>
+  <si>
+    <t>Hawaiian-Style Teriyaki Pork</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ingredients: Beef, Ostrich, Salt, Flavorings, Brown Sugar, Onion Powder, Garlic Powder.</t>
+  </si>
+  <si>
+    <t>Ingredients: Kangaroo, Beef, Salt, Flavorings, Brown Sugar, Onion.</t>
+  </si>
+  <si>
+    <t>Ingredients: Pork, Salt, Brown Sugar, Spice, Soy Sauce Powder, Pineapple, Corn Syrup.</t>
+  </si>
+  <si>
+    <t>Ingredients: Fresh Ham, Pork, Salt, Honey, Spices, Maple Sugar.</t>
+  </si>
+  <si>
+    <t>Ingredients: Venison, Beef, Salt, Water, Sugar, Flavorings, Jalapeno Pepper.</t>
+  </si>
+  <si>
+    <t>Ingredients: Beef, Buffalo, Bison, Salt, Flavorings, Pepper Sauce, Garlic.</t>
+  </si>
+  <si>
+    <t>Ingredients: Duck, Beef, Maple Sugar, Maple Syrup, Salt, Spices, Brown Sugar.</t>
+  </si>
+  <si>
+    <t>Ingredients: Beef, Salt, Plavorings, Brown Sugar.</t>
+  </si>
+  <si>
+    <t>Ingredients: Antelope, Beef, Salt, Brown Sugar, Paprika, Spice Extract.</t>
+  </si>
+  <si>
+    <t>Ingredients: Turkey, Beef, Salt, Brown Sugar, Spices, Black Pepper.</t>
+  </si>
+  <si>
+    <t>Ingredients: Elk, Beef, Salt, Water, Brown Sugar, Flavorings.</t>
+  </si>
+  <si>
+    <t>Ingredients: Alligator, Beef, Salt, Flavorings, Brown Sugar.</t>
+  </si>
+  <si>
+    <t>Ingredients: Venison, Beef, Salt, Water, Sugar, Flavorings, Soy Sauce Powder.</t>
+  </si>
+  <si>
+    <t>Ingredients: Wild Boar, Beef, Salt, Water, Sugar, Flavorings, Paprika, Red Pepper, Onion Powder, Garlic Powder, Molasses.</t>
+  </si>
+  <si>
+    <t>Ingredients: Pork, Salt, Spices, Vinegar, Paprika, Chile Pepper, Garlic Powder, Onion Powder, Spanish Pimento.</t>
   </si>
 </sst>
 </file>
@@ -74,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +174,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,9 +208,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -429,63 +548,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA1592F-2EB4-44EC-A733-09F4F0EE8A85}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="E2" s="9">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="E3" s="9">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="E4" s="9">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="E5" s="9">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>7.89</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11.95</v>
+      </c>
+      <c r="E6" s="9">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11.95</v>
+      </c>
+      <c r="E7" s="9">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11.95</v>
+      </c>
+      <c r="E8" s="9">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="E9" s="9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="E10" s="9">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="E11" s="9">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="E12" s="9">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>50</v>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="E13" s="9">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="E14" s="9">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="E15" s="9">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9.99</v>
+      </c>
+      <c r="E16" s="9">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>